--- a/PyDSheet.xlsx
+++ b/PyDSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461D2E38-14BF-4895-B05A-B7C2E2152598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B0B6B4-A8FA-4428-82A6-DAF1EFC3BDB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="3195" windowWidth="26535" windowHeight="9495" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -520,8 +520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:AY1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AP11" sqref="AP11"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="AQ11" sqref="AQ11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/PyDSheet.xlsx
+++ b/PyDSheet.xlsx
@@ -8,20 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF97BDA8-881F-419B-BACF-4E7914E7FD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784EA97-4368-4894-AEF0-469B3BDBB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB1" sheetId="1" r:id="rId1"/>
-    <sheet name="graph" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
   <si>
     <t>อุปกรณ์(ABB1)</t>
   </si>
@@ -63,150 +62,6 @@
   </si>
   <si>
     <t>T-2311&lt;--GEAR OIL EP 320 (JA748R)</t>
-  </si>
-  <si>
-    <t>00:00</t>
-  </si>
-  <si>
-    <t>00:30</t>
-  </si>
-  <si>
-    <t>01:00</t>
-  </si>
-  <si>
-    <t>01:30</t>
-  </si>
-  <si>
-    <t>02:00</t>
-  </si>
-  <si>
-    <t>02:30</t>
-  </si>
-  <si>
-    <t>03:00</t>
-  </si>
-  <si>
-    <t>03:30</t>
-  </si>
-  <si>
-    <t>04:00</t>
-  </si>
-  <si>
-    <t>04:30</t>
-  </si>
-  <si>
-    <t>05:00</t>
-  </si>
-  <si>
-    <t>05:30</t>
-  </si>
-  <si>
-    <t>06:00</t>
-  </si>
-  <si>
-    <t>06:30</t>
-  </si>
-  <si>
-    <t>07:00</t>
-  </si>
-  <si>
-    <t>07:30</t>
-  </si>
-  <si>
-    <t>08:00</t>
-  </si>
-  <si>
-    <t>08:30</t>
-  </si>
-  <si>
-    <t>09:00</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>10:00</t>
-  </si>
-  <si>
-    <t>10:30</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>11:30</t>
-  </si>
-  <si>
-    <t>12:00</t>
-  </si>
-  <si>
-    <t>12:30</t>
-  </si>
-  <si>
-    <t>13:00</t>
-  </si>
-  <si>
-    <t>13:30</t>
-  </si>
-  <si>
-    <t>14:00</t>
-  </si>
-  <si>
-    <t>14:30</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>15:30</t>
-  </si>
-  <si>
-    <t>16:00</t>
-  </si>
-  <si>
-    <t>16:30</t>
-  </si>
-  <si>
-    <t>17:00</t>
-  </si>
-  <si>
-    <t>17:30</t>
-  </si>
-  <si>
-    <t>18:00</t>
-  </si>
-  <si>
-    <t>18:30</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>19:30</t>
-  </si>
-  <si>
-    <t>20:00</t>
-  </si>
-  <si>
-    <t>20:30</t>
-  </si>
-  <si>
-    <t>21:00</t>
-  </si>
-  <si>
-    <t>21:30</t>
-  </si>
-  <si>
-    <t>22:00</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>23:00</t>
-  </si>
-  <si>
-    <t>23:30</t>
   </si>
 </sst>
 </file>
@@ -222,54 +77,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFCCCCFF"/>
-        <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0000FF"/>
-        <bgColor rgb="FF0000FF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6600"/>
-        <bgColor rgb="FFFF6600"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF99CC00"/>
-        <bgColor rgb="FF99CC00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF9900"/>
-        <bgColor rgb="FFFF9900"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF000080"/>
-        <bgColor rgb="FF000080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF008080"/>
-        <bgColor rgb="FF008080"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -284,16 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -598,8 +404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -741,224 +547,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AY5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="B1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" t="s">
-        <v>24</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
-        <v>26</v>
-      </c>
-      <c r="O1" t="s">
-        <v>27</v>
-      </c>
-      <c r="P1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" t="s">
-        <v>31</v>
-      </c>
-      <c r="T1" t="s">
-        <v>32</v>
-      </c>
-      <c r="U1" t="s">
-        <v>33</v>
-      </c>
-      <c r="V1" t="s">
-        <v>34</v>
-      </c>
-      <c r="W1" t="s">
-        <v>35</v>
-      </c>
-      <c r="X1" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>50</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>51</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="AD3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AE3" s="3"/>
-      <c r="AF3" s="3"/>
-      <c r="AG3" s="3"/>
-      <c r="AH3" s="3"/>
-      <c r="AI3" s="3"/>
-      <c r="AM3" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AN3" s="4"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AS3" s="5"/>
-      <c r="AT3" s="5"/>
-      <c r="AU3" s="5"/>
-      <c r="AV3" s="5"/>
-    </row>
-    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="V5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="AI5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="AJ5" s="7"/>
-      <c r="AK5" s="7"/>
-      <c r="AL5" s="7"/>
-      <c r="AQ5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/PyDSheet.xlsx
+++ b/PyDSheet.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\icanfly37\Documents\GitHub\excel-graph\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6784EA97-4368-4894-AEF0-469B3BDBB062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1278CB4E-AF2A-4B48-9102-A6414EFC2557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="35610" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ABB1" sheetId="1" r:id="rId1"/>
+    <sheet name="graph  TimingABB1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>อุปกรณ์(ABB1)</t>
   </si>
@@ -37,37 +38,172 @@
     <t>Blending</t>
   </si>
   <si>
-    <t>PARAFEX S103</t>
+    <t>GEAR OIL EP 220 (JA748R)</t>
   </si>
   <si>
     <t>Circulate</t>
   </si>
   <si>
-    <t>T-2312&lt;--PARAFEX S103</t>
-  </si>
-  <si>
-    <t>PARAFEX 4000R</t>
-  </si>
-  <si>
-    <t>T-2314&lt;--PARAFEX 4000R</t>
-  </si>
-  <si>
-    <t>PARAFEX S105</t>
-  </si>
-  <si>
-    <t>T-2320&lt;--PARAFEX S105</t>
-  </si>
-  <si>
-    <t>GEAR OIL EP 320 (JA748R)</t>
-  </si>
-  <si>
-    <t>T-2311&lt;--GEAR OIL EP 320 (JA748R)</t>
+    <t>T-2309&lt;--GEAR OIL EP 220 (JA748R)</t>
+  </si>
+  <si>
+    <t>GEAR OIL EP 460</t>
+  </si>
+  <si>
+    <t>T-2311&lt;--GEAR OIL EP 220 (JA748R)</t>
+  </si>
+  <si>
+    <t>00:00</t>
+  </si>
+  <si>
+    <t>00:30</t>
+  </si>
+  <si>
+    <t>01:00</t>
+  </si>
+  <si>
+    <t>01:30</t>
+  </si>
+  <si>
+    <t>02:00</t>
+  </si>
+  <si>
+    <t>02:30</t>
+  </si>
+  <si>
+    <t>03:00</t>
+  </si>
+  <si>
+    <t>03:30</t>
+  </si>
+  <si>
+    <t>04:00</t>
+  </si>
+  <si>
+    <t>04:30</t>
+  </si>
+  <si>
+    <t>05:00</t>
+  </si>
+  <si>
+    <t>05:30</t>
+  </si>
+  <si>
+    <t>06:00</t>
+  </si>
+  <si>
+    <t>06:30</t>
+  </si>
+  <si>
+    <t>07:00</t>
+  </si>
+  <si>
+    <t>07:30</t>
+  </si>
+  <si>
+    <t>08:00</t>
+  </si>
+  <si>
+    <t>08:30</t>
+  </si>
+  <si>
+    <t>09:00</t>
+  </si>
+  <si>
+    <t>09:30</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>10:30</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>12:30</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>14:30</t>
+  </si>
+  <si>
+    <t>15:00</t>
+  </si>
+  <si>
+    <t>15:30</t>
+  </si>
+  <si>
+    <t>16:00</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>17:00</t>
+  </si>
+  <si>
+    <t>17:30</t>
+  </si>
+  <si>
+    <t>18:00</t>
+  </si>
+  <si>
+    <t>18:30</t>
+  </si>
+  <si>
+    <t>19:00</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>20:00</t>
+  </si>
+  <si>
+    <t>20:30</t>
+  </si>
+  <si>
+    <t>21:00</t>
+  </si>
+  <si>
+    <t>21:30</t>
+  </si>
+  <si>
+    <t>22:00</t>
+  </si>
+  <si>
+    <t>22:30</t>
+  </si>
+  <si>
+    <t>23:00</t>
+  </si>
+  <si>
+    <t>23:30</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="187" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,12 +213,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0066CC"/>
+        <bgColor rgb="FF0066CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF993366"/>
+        <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF666699"/>
+        <bgColor rgb="FF666699"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -97,9 +257,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,149 +571,292 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.125" customWidth="1"/>
-    <col min="2" max="2" width="36.125" customWidth="1"/>
-    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="18.25" customWidth="1"/>
     <col min="4" max="4" width="18.125" customWidth="1"/>
-    <col min="5" max="5" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.85416666666666663</v>
+      <c r="C2" s="2">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.54166666666666663</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.89583333333333337</v>
+      <c r="C3" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0.60416666666666663</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.375</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.41666666666666669</v>
+      <c r="C4" s="2">
+        <v>0.625</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.66666666666666663</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AY5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AF3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+    </row>
+    <row r="5" spans="1:51" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" t="s">
+      <c r="AB5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AH5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.45833333333333331</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.875</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.95833333333333337</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.6875</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.6875</v>
-      </c>
-      <c r="D9" s="1">
-        <v>0.75</v>
-      </c>
+      <c r="AI5" s="6"/>
+      <c r="AJ5" s="6"/>
+      <c r="AK5" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>